--- a/biology/Zoologie/Glypheoidea/Glypheoidea.xlsx
+++ b/biology/Zoologie/Glypheoidea/Glypheoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glypheoidea est le nom d'une super-famille de crustacés, les glyphéides, appartenant à l'ordre des Décapodes.
-Cette famille, que l'on pensait entièrement éteinte depuis le Crétacé supérieur, a été créée pour décrire des espèces fossiles. Mais elle accueille aujourd'hui deux espèces récemment découvertes dans le Pacifique ouest[1], et peut-être d'autres espèces encore inconnues.
+Cette famille, que l'on pensait entièrement éteinte depuis le Crétacé supérieur, a été créée pour décrire des espèces fossiles. Mais elle accueille aujourd'hui deux espèces récemment découvertes dans le Pacifique ouest, et peut-être d'autres espèces encore inconnues.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espèces de cette super-famille sont morphologiquement caractérisées par :
 un long céphalothorax ;
@@ -546,12 +560,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La super-famille des Glypheoidea a été décrite par le naturaliste Tiberius Cornelis Winkler en 1883.
-Taxonomie
-L'infra-ordre Glypheidea regroupe deux superfamilles : Glypheoidea et Pemphicoidea[2].
-La super-famille des Glypheoidea (qui tire son nom d'un genre disparu nommé Glyphea) regroupe les trois familles suivantes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Glypheoidea a été décrite par le naturaliste Tiberius Cornelis Winkler en 1883.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glypheoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glypheoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'infra-ordre Glypheidea regroupe deux superfamilles : Glypheoidea et Pemphicoidea.
+La super-famille des Glypheoidea (qui tire son nom d'un genre disparu nommé Glyphea) regroupe les trois familles suivantes :
 1) Famille des Glypheidae
 Glyphea Meyer, 1835 †
 Glyphea broilii Kuhn, 1936
@@ -659,60 +710,166 @@
 Audogaster assmanni Charbonnier, Garassino, Schweigert &amp; Simpson, 2013
 Sinopemphix Fenglin, 1975
 Sinopemphix guizhouensis Fenglin, 197
-Note : le genre Sinopemphix a été récemment ajouté dans cette famille à la suite d'une analyse phylogénétique des Glypheoidea[4].
+Note : le genre Sinopemphix a été récemment ajouté dans cette famille à la suite d'une analyse phylogénétique des Glypheoidea.
 3) Famille des Mecochiridae †
 Mecochirus †
 Mecochirus houdardi
 Mecochirus longimanatus
 Meyeria †
-Atherfieldastacus Simpson in Robin, Charbonnier, Merle, Simpson, Petit &amp; Fernandez[5]
-Atherfieldastacus magnus (MʼCoy, 1849)
-Super-famille Pemphicoidea
-La super-famille des Pemphicoidea (qui tire son nom d'un genre disparu nommé Pemphix) regroupe une seule famille :
+Atherfieldastacus Simpson in Robin, Charbonnier, Merle, Simpson, Petit &amp; Fernandez
+Atherfieldastacus magnus (MʼCoy, 1849)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glypheoidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glypheoidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Super-famille Pemphicoidea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La super-famille des Pemphicoidea (qui tire son nom d'un genre disparu nommé Pemphix) regroupe une seule famille :
 1) Famille des Pemphicidae †
 Pemphix †
 Pseudopemphix †</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Glypheoidea</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Glypheoidea</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Deux espèces actuelles de Glypheidae récemment découvertes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces ont été récemment découvertes en mer de Corail dans l'Ouest de l'océan Pacifique[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces ont été récemment découvertes en mer de Corail dans l'Ouest de l'océan Pacifique.
 Note : la famille des Glypheidae a d'abord été considérée comme éteinte durant l'Éocène, mais rouverte pour accueillir deux nouvelles espèces panchroniques : Neoglyphea inopinata et Laurentaeglyphea neocaledonica. Ces deux espèces auraient pu avoir trouvé refuge dans les fonds du Pacifique où plusieurs autres formes panchroniques ont été trouvées.
-Neoglyphea inopinata Forest &amp; de Saint Laurent, 1975
-Son genre et sa famille étant antérieurement supposés comme éteints, cette espèce est considérée panchronique d'un genre qui existait au Mésozoïque, redécouvert par hasard, d'abord par un seul spécimen pêché à -186 m en 1908 lors d'un chalutage du navire de recherche américain (l'Albatross), puis conservé sans avoir été identifié au Musée national d'histoire naturelle des États-Unis, et ayant été finalement décrit et identifié en 1975 par J. Forest et M. de Saint Laurent.
-En 1976, une série de chalutages scientifiques opérés par des Français, là où l’Albatross avait trouvé le premier spécimen, remontaient — après 36 passages de chalut échelonnés sur cinq jours — une femelle et huit mâles (Forest 1981). Puis deux femelles adultes ont pu être trouvées sur le même site respectivement en 1980 et en 1985 par le navire Coriolis avec deux autres mâles. Forest et Saint Laurent ont alors pu achever de décrire l'espèce. Son aire connue de répartition a pu être précisée à la suite de la capture en mer d'Arafura[7], par un chalut australien, de deux autres individus en 1987 et 1988, dont une femelle ovigère (la première jamais étudiée). Curieusement, durant près de 20 ans et malgré des campagnes annuelles, cette espèce n'a pas été revue dans le Sud-Ouest Pacifique.
-Laurentaeglyphea neocaledonica B. Richer de Forges, 2006
-Cette espèce a été identifiée par une unique femelle pêchée en eaux profondes, en octobre 2006 Nouvelle-Calédonie (Banc Capel, au sud du plateau de Chesterfield, en mer du Corail), lors d'une pêche scientifique de la campagne EBISCO (Exploration de la Biodiversité et ISolement en mer de Corail). Cette espèce a d'abord été insérée dans le genre Neoglyphea puis rattachée à un nouveau genre, Laurentaeglyphea, par Jacques Forest dans une note publiée en 2006, du fait de ses disparités morphologiques avec N. inopinata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glypheoidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glypheoidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Deux espèces actuelles de Glypheidae récemment découvertes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Neoglyphea inopinata Forest &amp; de Saint Laurent, 1975</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son genre et sa famille étant antérieurement supposés comme éteints, cette espèce est considérée panchronique d'un genre qui existait au Mésozoïque, redécouvert par hasard, d'abord par un seul spécimen pêché à -186 m en 1908 lors d'un chalutage du navire de recherche américain (l'Albatross), puis conservé sans avoir été identifié au Musée national d'histoire naturelle des États-Unis, et ayant été finalement décrit et identifié en 1975 par J. Forest et M. de Saint Laurent.
+En 1976, une série de chalutages scientifiques opérés par des Français, là où l’Albatross avait trouvé le premier spécimen, remontaient — après 36 passages de chalut échelonnés sur cinq jours — une femelle et huit mâles (Forest 1981). Puis deux femelles adultes ont pu être trouvées sur le même site respectivement en 1980 et en 1985 par le navire Coriolis avec deux autres mâles. Forest et Saint Laurent ont alors pu achever de décrire l'espèce. Son aire connue de répartition a pu être précisée à la suite de la capture en mer d'Arafura, par un chalut australien, de deux autres individus en 1987 et 1988, dont une femelle ovigère (la première jamais étudiée). Curieusement, durant près de 20 ans et malgré des campagnes annuelles, cette espèce n'a pas été revue dans le Sud-Ouest Pacifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glypheoidea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glypheoidea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Deux espèces actuelles de Glypheidae récemment découvertes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Laurentaeglyphea neocaledonica B. Richer de Forges, 2006</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été identifiée par une unique femelle pêchée en eaux profondes, en octobre 2006 Nouvelle-Calédonie (Banc Capel, au sud du plateau de Chesterfield, en mer du Corail), lors d'une pêche scientifique de la campagne EBISCO (Exploration de la Biodiversité et ISolement en mer de Corail). Cette espèce a d'abord été insérée dans le genre Neoglyphea puis rattachée à un nouveau genre, Laurentaeglyphea, par Jacques Forest dans une note publiée en 2006, du fait de ses disparités morphologiques avec N. inopinata.
 La femelle de cette espèce est plus courte et trapue que celle de N. inopinata notamment pour le céphalothorax et les premiers péréiopodes.
 Ses yeux sont plus gros et le troisième article du pédoncule de l'antenne est plus court que chez N. inopinata ; il est en outre orné de 5 épines contre environ 10 chez N. inopinata.
 Sa carapace diffère dans sa couleur et dans son ornementation ; sa face dorsale est entièrement lisse, les faces latérales étant marquées de « petites dépressions en arrière du sillon cervical et d’épines en avant » alors que chez N. inopinata, la carapace est couverte de petits tubercules au sommet terminé par une spinule.
 Devant le sillon cervical, la face dorsale du céphalothorax est carénée de manière médiodorsale bifurquée avec, de part et d’autre, deux carènes longitudinales entièrement lisses, alors que N. inopinata ne présente aucune carène marquée mais des tubercules spinuleux plus ou moins marqués et alignés ; le rostre est triangulaire et arrondi, aux bords lisses, alors qu'il est long, pointu et avec des bords serrulés chez L. neocaledonica. Il est 1,1 fois plus long que large à sa base alors qu'il est 2,2 fois plus long que large chez N. inopinata.
-Enfin, la couleur générale de l'animal est rose-beige (avec des ponctuations rouge vif sur l’abdomen, la partie supérieure du céphalothorax et les premiers péréiopodes) alors qu'elle est orangée et uniforme sur le céphalothorax de N. inopinata et finement ponctuée de taches orange sur les articles abdominaux[8].
+Enfin, la couleur générale de l'animal est rose-beige (avec des ponctuations rouge vif sur l’abdomen, la partie supérieure du céphalothorax et les premiers péréiopodes) alors qu'elle est orangée et uniforme sur le céphalothorax de N. inopinata et finement ponctuée de taches orange sur les articles abdominaux.
 Son habitat ne saurait être décrit par une seule capture, mais on sait que l'animal a été capturé entre -357 m et -536 m sur les flancs d'un mont sous-marin (le banc Capel) de type guyot, ancien atoll immergé dont le sommet plat culmine à -300 m environ, dans un environnement balayé par de forts courants, à substrat dur (ni sable ni vase, mais éboulis coralliens).
 </t>
         </is>
